--- a/RestAssured_Test_Scenario.xlsx
+++ b/RestAssured_Test_Scenario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravi_kumar62\eclipse-workspace\RestAssured_TestNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB206AC7-7787-4B33-96BA-EC0EC2FD3CF1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C77A94-68C2-4DCE-9422-7FFD87674C27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{752E9302-04A9-4B07-BE23-6AD79B48C5DF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>TCID</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>COMMENT</t>
   </si>
   <si>
     <t>Weather API- Validate Status Code and Status Line</t>
@@ -161,6 +158,46 @@
 }
 Username - ToolsQA
 Password- TestPassword</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>Get All Employees Data</t>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com/api/v1/</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Status Code: 200
+Status Line :
+Content Type :
+Content Encoding :
+Content Length :</t>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com/api/v1/employees</t>
+  </si>
+  <si>
+    <t>Create a New Employee- DDT Test</t>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com/api/v1/create</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>TC0010</t>
+  </si>
+  <si>
+    <t>Get Single Employee Data</t>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com/api/v1/employees/41208</t>
   </si>
 </sst>
 </file>
@@ -526,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334BBF25-326E-4878-97D6-090020BE9B92}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +578,7 @@
     <col min="6" max="6" width="69.08984375" customWidth="1"/>
     <col min="7" max="7" width="53.08984375" customWidth="1"/>
     <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" customWidth="1"/>
+    <col min="9" max="9" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -570,30 +607,30 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -601,22 +638,22 @@
     </row>
     <row r="3" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="H3">
         <v>201</v>
@@ -624,25 +661,25 @@
     </row>
     <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -650,25 +687,25 @@
     </row>
     <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -676,25 +713,25 @@
     </row>
     <row r="6" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
       <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -702,25 +739,25 @@
     </row>
     <row r="7" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
       <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H7">
         <v>200</v>
@@ -728,25 +765,89 @@
     </row>
     <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="H8">
         <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -763,9 +864,15 @@
     <hyperlink ref="E7" r:id="rId10" xr:uid="{291846EC-DDD0-49A5-BBE3-CA1EAD468693}"/>
     <hyperlink ref="C8" r:id="rId11" xr:uid="{6B76F5D5-FF7F-4B58-9F98-5863814E7EF1}"/>
     <hyperlink ref="E8" r:id="rId12" xr:uid="{6DFEA90F-3FB8-4E8B-ACF9-8BEE8FE44885}"/>
+    <hyperlink ref="C10" r:id="rId13" xr:uid="{22510017-69AA-45B6-81E4-334C403B3120}"/>
+    <hyperlink ref="E10" r:id="rId14" xr:uid="{2AEAF78D-8E9A-4438-AF37-437D7B28A4EF}"/>
+    <hyperlink ref="C9" r:id="rId15" xr:uid="{46F56FD3-17EA-4EFA-9C8B-DB61DFFB8DB6}"/>
+    <hyperlink ref="E9" r:id="rId16" xr:uid="{5A427E60-76CB-4F69-90F9-7E55BCC96C9E}"/>
+    <hyperlink ref="C11" r:id="rId17" xr:uid="{2A5D8812-6075-43DB-A695-FE36FDE54ABF}"/>
+    <hyperlink ref="E11" r:id="rId18" xr:uid="{D76D62D7-2792-4FAA-881F-1CBEB816AEE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;7&amp;K7F7F7FInternal Use - Confidential</oddFooter>
   </headerFooter>
